--- a/imageCreationExcel/back/111/111_11.xlsx
+++ b/imageCreationExcel/back/111/111_11.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.80929900687865</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.099940923591318</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.2043213368503557</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_9_brightness17.809_contrast1.1_sharpness0.204.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,15 +537,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8130650691132926</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5221174524567471</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.75818492809572</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_I_contrast0.813_gamma0.522_equalization10.758.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8464819359579018</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6248318631733716</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.642107580723833</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_contrast0.846_gamma0.625_sharpness0.642.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8365575432917473</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.3738948343386132</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.458424539728686</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_9_contrast0.837_sharpness0.374_equalization9.458.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9375880438974529</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.4958349820680157</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>29.70941626352127</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_E_gamma0.938_sharpness0.496_equalization29.709.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8539281565705618</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4702656859211281</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>17.56920789331935</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_gamma0.854_sharpness0.47_equalization17.569.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9952367992153259</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9512930419831056</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7.572305425589029</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_3_gamma0.995_sharpness0.951_equalization7.572.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.893988211935645</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.4697465433584231</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>17.27814840479577</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_T_gamma0.894_sharpness0.47_equalization17.278.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -831,30 +831,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.672734228485619</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.018002637822406</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.6804357213826978</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_brightness3.673_contrast1.018_gamma0.68.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.050648122616674</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.7494518300657733</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.08598400208901005</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_E_contrast1.051_gamma0.749_sharpness0.086.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9628392138747247</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.3716824237048593</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>24.55763251829117</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.963_sharpness0.372_equalization24.558.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.06884935797865</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8162923785007274</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>14.54825317162384</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_gamma1.069_sharpness0.816_equalization14.548.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8234296833982506</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5932481637156194</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>16.58834723828367</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_contrast0.823_sharpness0.593_equalization16.588.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9466452644485931</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.488644265960649</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.20175744832984</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_gamma0.947_sharpness0.489_equalization6.202.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23.53403349271082</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6983229005463455</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1066026889951764</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_brightness23.534_gamma0.698_sharpness0.107.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26.53529750177707</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.081278462162238</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.3680953850547558</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_brightness26.535_contrast1.081_sharpness0.368.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5611922234627033</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.2790935959581986</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>25.28032557820365</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_7_gamma0.561_sharpness0.279_equalization25.28.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,15 +1209,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16.36104345639551</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5730775886415939</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5712066241139806</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_S_brightness16.361_gamma0.573_sharpness0.571.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.832796725785705</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9016690406151746</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.027878730812923</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_brightness1.833_contrast0.902_gamma1.028.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.445925326432416</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.05167160792984</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5919529867359393</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_I_brightness9.446_contrast1.052_gamma0.592.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.022180087545777</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7743935616575636</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4.217402570629328</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_gamma1.022_sharpness0.774_equalization4.217.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1373,34 +1373,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.126036684677689</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9782969806698522</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.03521262364615</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_9_contrast1.126_sharpness0.978_equalization7.035.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5467715542150453</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9192823041228386</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.3760283881042974</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_0_brightness0.547_contrast0.919_sharpness0.376.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9022457674618851</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5957497803304964</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12.3549476226811</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_2_contrast0.902_gamma0.596_equalization12.355.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6.620375606962141</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6196671035615002</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5776106910956786</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_1_brightness6.62_gamma0.62_sharpness0.578.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.811163776253771</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.057130763263235</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.5682414421763003</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_8_brightness3.811_contrast1.057_gamma0.568.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22.84156753919176</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8102881951435508</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.7438878297441854</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_brightness22.842_contrast0.81_sharpness0.744.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.158816255581418</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.08104413706011936</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>31.47738571660282</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_9_contrast1.159_sharpness0.081_equalization31.477.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11.62067447289046</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9107557687932563</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.2983102739606047</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_brightness11.621_contrast0.911_sharpness0.298.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1713,30 +1713,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.057790413698314</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1916904186420091</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>18.38553904988242</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_7_contrast1.058_sharpness0.192_equalization18.386.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9077952968264954</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5437480443090559</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>12.88805620222583</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_E_contrast0.908_gamma0.544_equalization12.888.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.32633957757185</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8344022631261396</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.9404548754595213</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_7_brightness10.326_contrast0.834_gamma0.94.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.70986022825752</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8749743334810122</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.5261609928208748</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_2_brightness9.71_contrast0.875_sharpness0.526.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.197005348970813</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1789257813616952</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>30.68040513890647</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_7_contrast1.197_sharpness0.179_equalization30.68.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4.274082913839711</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.092422649051761</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.049296637554109</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_2_brightness4.274_contrast1.092_gamma1.049.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6.080868883053575</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8355760956984557</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.072031927460921</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_brightness6.081_contrast0.836_gamma1.072.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.150501596709641</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8686055779490235</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>14.60437514415749</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_contrast1.151_sharpness0.869_equalization14.604.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.018573512378548</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.583864130501657</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>21.89455277945325</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_gamma1.019_sharpness0.584_equalization21.895.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6216105178223488</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5877176322889772</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5.235464885613258</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_gamma0.622_sharpness0.588_equalization5.235.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2124,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>16.24146231572011</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.183111308305676</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.5213528124294329</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_brightness16.241_contrast1.183_sharpness0.521.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9440646590481141</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9785735460629332</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8.908575396287045</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_7_contrast0.944_sharpness0.979_equalization8.909.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.129564065631723</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4699439876561473</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>24.86353631564092</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_B_contrast1.13_sharpness0.47_equalization24.864.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12.71422072616726</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9929328047955266</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.7560334301539018</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_P_brightness12.714_contrast0.993_gamma0.756.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.027489007537439</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7822762489744101</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6.59056703173837</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_1_contrast1.027_sharpness0.782_equalization6.591.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.009387764252925</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9180374819816399</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.7785202522518477</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_contrast1.009_gamma0.918_sharpness0.779.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>21.03634728445281</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9731977420210542</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.9306786069351713</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_3_brightness21.036_contrast0.973_sharpness0.931.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.190630137017511</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5794922743324674</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>13.92658854438201</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_B_contrast1.191_gamma0.579_equalization13.927.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,15 +2469,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.097216736474477</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.2969216059103025</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>30.19208601561596</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_contrast1.097_sharpness0.297_equalization30.192.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
